--- a/테이블정의서.xlsx
+++ b/테이블정의서.xlsx
@@ -5,15 +5,15 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\김현철\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\김현철\Desktop\local1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4DDDDC3-51D2-4C03-B95F-C90256190D4B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07B1F33C-A727-4F8A-A5F3-7E9D32A1CE80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4920" yWindow="105" windowWidth="13980" windowHeight="10290" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="table정보" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="461" uniqueCount="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="593" uniqueCount="169">
   <si>
     <t>데이터베이스명</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -75,22 +75,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>category</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>group</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>카테고리</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>분류</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>title</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -163,10 +147,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>구매자 리뷰</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>authorInfo</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -266,10 +246,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>이벤트 이미지</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -378,82 +354,66 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>BookInfo테이블 참조</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>aname</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>알림 내용 테이블</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>noticelist</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>책 아이디(bookInfo 테이블 참조)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cart</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>카트테이블</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>status</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>purcharse</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bprice</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>구매가격</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>buydate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>구매날짜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>구매/ 대여테이블</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ix</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>책 제목</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>대표책제목</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>알림 내용 테이블</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>noticelist</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>책 아이디(bookInfo 테이블 참조)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>cart</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>카트테이블</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>status</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>purcharse</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bprice</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>구매가격</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>buydate</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>구매날짜</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>구매/ 대여테이블</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ix</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>책 제목</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>저자 목록 번호,  author테이블 참조</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>address</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -498,14 +458,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>DATE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>쿠폰 등록일</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>쿠폰명</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -547,10 +499,6 @@
   </si>
   <si>
     <t>no</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>cregdate</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -622,10 +570,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>review</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>대여가능(true/false)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -646,10 +590,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>repbook</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>출생</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -667,6 +607,126 @@
   </si>
   <si>
     <t>대여가능한 수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>categoryid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>groupid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Category</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Category 테이블</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>categoryname</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>카테고리번호</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>카테고리명</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Group</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>분류 테이블</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>groupname</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>분류명</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>카테고리번호(Category 테이블 참조)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>분류번호</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>분류번호 (Group 테이블 참조)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Category번호(Category) 테이블 참조</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>indate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>등록일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이벤트 이미지 경로</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Review</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>리뷰 테이블</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>content</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>리뷰 내용</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>reid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>리뷰식별 번호</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>리뷰 식별 번호(Review 테이블 참조)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>저자정보와 책정보 테이블연결</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>저자 고유 식별번호 (BookInfo테이블 참조)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>저자 고유식별 번호,  author테이블 참조</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ABRelation</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>authorInfo테이블 참조</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -708,7 +768,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -744,13 +804,24 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -795,6 +866,15 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1110,10 +1190,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F105"/>
+  <dimension ref="A1:M109"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="M32" sqref="M32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1122,10 +1202,15 @@
     <col min="2" max="2" width="15.375" customWidth="1"/>
     <col min="3" max="3" width="14.375" customWidth="1"/>
     <col min="4" max="5" width="8.75" style="14"/>
-    <col min="6" max="6" width="36.875" customWidth="1"/>
+    <col min="6" max="6" width="45.625" customWidth="1"/>
+    <col min="8" max="8" width="18" style="16" customWidth="1"/>
+    <col min="9" max="9" width="15.375" customWidth="1"/>
+    <col min="10" max="10" width="14.375" customWidth="1"/>
+    <col min="11" max="12" width="9" style="14"/>
+    <col min="13" max="13" width="45.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1133,7 +1218,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
@@ -1141,10 +1226,19 @@
         <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+        <v>40</v>
+      </c>
+      <c r="H3" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="J3" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>2</v>
       </c>
@@ -1161,15 +1255,33 @@
         <v>6</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+      <c r="H4" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K4" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L4" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="M4" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="C5" s="5" t="s">
         <v>9</v>
@@ -1181,55 +1293,91 @@
         <v>10</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+        <v>79</v>
+      </c>
+      <c r="H5" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="I5" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="J5" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="K5" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="L5" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="M5" s="6" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="H6" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="I6" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="J6" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="K6" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="L6" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="M6" s="6" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A7" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A8" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A7" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A8" s="6" t="s">
-        <v>16</v>
-      </c>
       <c r="B8" s="5" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="C8" s="5" t="s">
         <v>9</v>
@@ -1241,15 +1389,15 @@
         <v>11</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A9" s="6" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="C9" s="5" t="s">
         <v>9</v>
@@ -1261,15 +1409,15 @@
         <v>10</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A10" s="6" t="s">
-        <v>144</v>
+        <v>130</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="C10" s="5" t="s">
         <v>4</v>
@@ -1281,15 +1429,24 @@
         <v>10</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+        <v>131</v>
+      </c>
+      <c r="H10" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="J10" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A11" s="6" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="C11" s="5" t="s">
         <v>9</v>
@@ -1301,15 +1458,33 @@
         <v>11</v>
       </c>
       <c r="F11" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H11" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="I11" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J11" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K11" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L11" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="M11" s="3" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A12" s="6" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C12" s="5" t="s">
         <v>4</v>
@@ -1321,15 +1496,33 @@
         <v>11</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+        <v>72</v>
+      </c>
+      <c r="H12" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="I12" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="J12" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="K12" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="L12" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="M12" s="15" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A13" s="6" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C13" s="5" t="s">
         <v>9</v>
@@ -1341,15 +1534,33 @@
         <v>11</v>
       </c>
       <c r="F13" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H13" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="I13" s="6" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="J13" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="K13" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="L13" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="M13" s="6" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A14" s="6" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C14" s="5" t="s">
         <v>9</v>
@@ -1361,15 +1572,33 @@
         <v>11</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+        <v>24</v>
+      </c>
+      <c r="H14" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="I14" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="J14" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="K14" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="L14" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="M14" s="6" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A15" s="6" t="s">
-        <v>150</v>
+        <v>135</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="C15" s="5" t="s">
         <v>9</v>
@@ -1381,15 +1610,15 @@
         <v>11</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A16" s="6" t="s">
-        <v>151</v>
+        <v>136</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="C16" s="5" t="s">
         <v>4</v>
@@ -1401,126 +1630,209 @@
         <v>11</v>
       </c>
       <c r="F16" s="4" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A17" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="B17" s="6" t="s">
-        <v>146</v>
+        <v>154</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>68</v>
       </c>
       <c r="C17" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F17" s="4" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="H19" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="I19" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="J19" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="H20" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="I20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J20" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D17" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E17" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F17" s="4" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A20" s="2" t="s">
+      <c r="K20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L20" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="M20" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A21" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B20" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="C20" t="s">
+      <c r="B21" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C21" t="s">
+        <v>41</v>
+      </c>
+      <c r="H21" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="I21" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J21" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K21" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="L21" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="M21" s="1" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A22" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="H22" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="I22" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="J22" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="K22" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="L22" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="M22" s="5" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A23" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F23" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="H23" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="I23" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="J23" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="K23" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="L23" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="M23" s="5" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A24" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="H24" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="I24" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="J24" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="K24" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="L24" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="M24" s="4" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B25" s="1" t="s">
         <v>46</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A21" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D21" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E21" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="F21" s="3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A22" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="B22" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="C22" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D22" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E22" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F22" s="5" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A23" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D23" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E23" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F23" s="1" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A24" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D24" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E24" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F24" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A25" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>51</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>4</v>
@@ -1532,15 +1844,33 @@
         <v>11</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+        <v>28</v>
+      </c>
+      <c r="H25" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="I25" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="J25" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="K25" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="L25" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="M25" s="6" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>4</v>
@@ -1552,15 +1882,33 @@
         <v>11</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+        <v>29</v>
+      </c>
+      <c r="H26" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="I26" s="6" t="s">
+        <v>132</v>
+      </c>
+      <c r="J26" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="K26" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="L26" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="M26" s="4" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
-        <v>142</v>
+        <v>161</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>48</v>
+        <v>17</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>4</v>
@@ -1569,24 +1917,41 @@
         <v>11</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A28" s="12"/>
+      <c r="B28" s="13"/>
+      <c r="C28" s="13"/>
+      <c r="D28" s="9"/>
+      <c r="E28" s="9"/>
+      <c r="F28" s="7"/>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A30" s="2" t="s">
         <v>1</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="C30" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+        <v>42</v>
+      </c>
+      <c r="H30" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="I30" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="J30" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A31" s="3" t="s">
         <v>2</v>
       </c>
@@ -1603,15 +1968,33 @@
         <v>6</v>
       </c>
       <c r="F31" s="3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+      <c r="H31" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="I31" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J31" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K31" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L31" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="M31" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A32" s="5" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="C32" s="5" t="s">
         <v>9</v>
@@ -1623,15 +2006,33 @@
         <v>10</v>
       </c>
       <c r="F32" s="5" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+        <v>165</v>
+      </c>
+      <c r="H32" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="I32" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="J32" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="K32" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="L32" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="M32" s="5" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="C33" s="1" t="s">
         <v>9</v>
@@ -1643,15 +2044,33 @@
         <v>11</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+        <v>31</v>
+      </c>
+      <c r="H33" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="I33" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="J33" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="K33" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="L33" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="M33" s="5" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="C34" s="1" t="s">
         <v>4</v>
@@ -1663,15 +2082,15 @@
         <v>11</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="C35" s="1" t="s">
         <v>4</v>
@@ -1683,15 +2102,15 @@
         <v>11</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="C36" s="1" t="s">
         <v>4</v>
@@ -1703,15 +2122,15 @@
         <v>11</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B37" s="1" t="s">
         <v>39</v>
-      </c>
-      <c r="B37" s="1" t="s">
-        <v>44</v>
       </c>
       <c r="C37" s="1" t="s">
         <v>4</v>
@@ -1723,15 +2142,15 @@
         <v>11</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="C38" s="1" t="s">
         <v>9</v>
@@ -1743,217 +2162,233 @@
         <v>11</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
-        <v>148</v>
+        <v>36</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>23</v>
+        <v>43</v>
       </c>
       <c r="C39" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D39" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E39" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F39" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A40" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="B40" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="C40" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D40" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E40" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F40" s="4" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A41" s="12"/>
+      <c r="B41" s="13"/>
+      <c r="C41" s="13"/>
+      <c r="D41" s="9"/>
+      <c r="E41" s="9"/>
+      <c r="F41" s="7"/>
+    </row>
+    <row r="43" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A43" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C43" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A44" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B44" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C44" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D39" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E39" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F39" s="1" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A42" s="2" t="s">
+      <c r="D44" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E44" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F44" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A45" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D45" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E45" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F45" s="1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A46" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D46" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E46" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F46" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A47" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D47" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E47" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F47" s="1" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A48" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="B48" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="C48" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D48" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E48" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F48" s="4" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A49" s="12"/>
+      <c r="B49" s="13"/>
+      <c r="C49" s="13"/>
+      <c r="D49" s="9"/>
+      <c r="E49" s="9"/>
+      <c r="F49" s="7"/>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A51" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B42" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="C42" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A43" s="3" t="s">
+      <c r="B51" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="C51" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A52" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B43" s="3" t="s">
+      <c r="B52" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C43" s="3" t="s">
+      <c r="C52" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D43" s="3" t="s">
+      <c r="D52" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E43" s="3" t="s">
+      <c r="E52" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="F43" s="3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A44" s="4" t="s">
-        <v>110</v>
-      </c>
-      <c r="B44" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="C44" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D44" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E44" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F44" s="1" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A45" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="B45" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="C45" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D45" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E45" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F45" s="1" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A46" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="B46" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C46" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D46" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E46" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F46" s="1" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A49" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B49" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="C49" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A50" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B50" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C50" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D50" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E50" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="F50" s="3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A51" s="5" t="s">
-        <v>114</v>
-      </c>
-      <c r="B51" s="5" t="s">
-        <v>115</v>
-      </c>
-      <c r="C51" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D51" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="E51" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="F51" s="5" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A52" s="5" t="s">
-        <v>131</v>
-      </c>
-      <c r="B52" s="5" t="s">
-        <v>118</v>
-      </c>
-      <c r="C52" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D52" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E52" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F52" s="5" t="s">
-        <v>119</v>
+      <c r="F52" s="3" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A53" s="5" t="s">
-        <v>121</v>
+        <v>104</v>
       </c>
       <c r="B53" s="5" t="s">
-        <v>122</v>
+        <v>105</v>
       </c>
       <c r="C53" s="5" t="s">
         <v>9</v>
       </c>
       <c r="D53" s="3" t="s">
-        <v>11</v>
+        <v>106</v>
       </c>
       <c r="E53" s="3" t="s">
-        <v>11</v>
+        <v>118</v>
       </c>
       <c r="F53" s="5" t="s">
-        <v>120</v>
+        <v>107</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A54" s="6" t="s">
-        <v>123</v>
+        <v>154</v>
       </c>
       <c r="B54" s="5" t="s">
-        <v>129</v>
+        <v>68</v>
       </c>
       <c r="C54" s="5" t="s">
         <v>9</v>
@@ -1964,16 +2399,16 @@
       <c r="E54" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="F54" s="6" t="s">
-        <v>124</v>
+      <c r="F54" s="4" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A55" s="6" t="s">
-        <v>125</v>
+      <c r="A55" s="5" t="s">
+        <v>109</v>
       </c>
       <c r="B55" s="5" t="s">
-        <v>129</v>
+        <v>110</v>
       </c>
       <c r="C55" s="5" t="s">
         <v>9</v>
@@ -1984,242 +2419,242 @@
       <c r="E55" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="F55" s="6" t="s">
-        <v>126</v>
+      <c r="F55" s="5" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A56" s="6" t="s">
-        <v>127</v>
+        <v>111</v>
       </c>
       <c r="B56" s="5" t="s">
-        <v>74</v>
+        <v>117</v>
       </c>
       <c r="C56" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D56" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E56" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F56" s="6" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A57" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="B57" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="C57" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D57" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E57" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F57" s="6" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A58" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="B58" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="C58" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="D56" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E56" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F56" s="6" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A57" s="10"/>
-      <c r="F57" s="10"/>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A58" s="10"/>
-      <c r="F58" s="10"/>
+      <c r="D58" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E58" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F58" s="6" t="s">
+        <v>116</v>
+      </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A59" s="2" t="s">
+      <c r="A59" s="10"/>
+      <c r="F59" s="10"/>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A60" s="10"/>
+      <c r="F60" s="10"/>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A61" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B59" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="C59" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A60" s="3" t="s">
+      <c r="B61" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="C61" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A62" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B60" s="3" t="s">
+      <c r="B62" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C60" s="3" t="s">
+      <c r="C62" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D60" s="3" t="s">
+      <c r="D62" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E60" s="3" t="s">
+      <c r="E62" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="F60" s="3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A61" s="5" t="s">
+      <c r="F62" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A63" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="B63" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C63" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D63" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E63" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F63" s="5" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A64" s="5" t="s">
         <v>104</v>
       </c>
-      <c r="B61" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C61" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D61" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E61" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F61" s="5" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A62" s="5" t="s">
-        <v>114</v>
-      </c>
-      <c r="B62" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="C62" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D62" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E62" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F62" s="5" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A63" s="13"/>
-      <c r="B63" s="13"/>
-      <c r="C63" s="13"/>
-      <c r="D63" s="9"/>
-      <c r="E63" s="9"/>
-      <c r="F63" s="13"/>
-    </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A64" s="12"/>
-      <c r="B64" s="13"/>
-      <c r="C64" s="13"/>
-      <c r="D64" s="9"/>
-      <c r="E64" s="9"/>
-      <c r="F64" s="12"/>
+      <c r="B64" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="C64" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D64" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E64" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F64" s="5" t="s">
+        <v>125</v>
+      </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A65" s="1" t="s">
+      <c r="A65" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="B65" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="C65" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D65" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E65" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F65" s="4" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A66" s="12"/>
+      <c r="B66" s="13"/>
+      <c r="C66" s="13"/>
+      <c r="D66" s="9"/>
+      <c r="E66" s="9"/>
+      <c r="F66" s="7"/>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A67" s="12"/>
+      <c r="B67" s="13"/>
+      <c r="C67" s="13"/>
+      <c r="D67" s="9"/>
+      <c r="E67" s="9"/>
+      <c r="F67" s="12"/>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A68" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B65" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="C65" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A66" s="3" t="s">
+      <c r="B68" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C68" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A69" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B66" s="3" t="s">
+      <c r="B69" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C66" s="3" t="s">
+      <c r="C69" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D66" s="3" t="s">
+      <c r="D69" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E66" s="3" t="s">
+      <c r="E69" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="F66" s="3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A67" s="5" t="s">
-        <v>104</v>
-      </c>
-      <c r="B67" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C67" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D67" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E67" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F67" s="5" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A68" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="B68" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C68" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D68" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="E68" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="F68" s="4" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A69" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="B69" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C69" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D69" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="E69" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="F69" s="4" t="s">
-        <v>63</v>
+      <c r="F69" s="3" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A70" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="B70" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C70" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D70" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="E70" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="F70" s="4" t="s">
-        <v>133</v>
+      <c r="A70" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="B70" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C70" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D70" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E70" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F70" s="5" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A71" s="4" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>44</v>
+        <v>20</v>
       </c>
       <c r="C71" s="1" t="s">
         <v>9</v>
@@ -2231,18 +2666,18 @@
         <v>11</v>
       </c>
       <c r="F71" s="4" t="s">
-        <v>66</v>
+        <v>119</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A72" s="4" t="s">
-        <v>67</v>
+        <v>56</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C72" s="4" t="s">
-        <v>4</v>
+        <v>20</v>
+      </c>
+      <c r="C72" s="1" t="s">
+        <v>9</v>
       </c>
       <c r="D72" s="11" t="s">
         <v>11</v>
@@ -2251,460 +2686,548 @@
         <v>11</v>
       </c>
       <c r="F72" s="4" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A73" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C73" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D73" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="E73" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="F73" s="4" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A74" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="B74" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C74" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D74" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="E74" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="F74" s="4" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A75" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="B75" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C75" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D75" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="E75" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="F75" s="4" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A76" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="B76" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C76" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D76" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="E76" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="F76" s="4" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A77" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B77" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C77" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D77" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="E77" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="F77" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="B73" s="1" t="s">
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A78" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B78" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C78" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D78" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="E78" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="F78" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="C73" s="4" t="s">
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A81" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B81" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C81" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A82" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B82" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C82" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D73" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="E73" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="F73" s="4" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A74" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="B74" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="C74" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D74" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="E74" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="F74" s="1" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A75" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="B75" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="C75" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D75" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="E75" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="F75" s="1" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A78" s="2" t="s">
+      <c r="D82" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E82" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F82" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A83" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="B83" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C83" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D83" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="E83" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="F83" s="4" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A84" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B84" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C84" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D84" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E84" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F84" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A87" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B78" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="C78" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A79" s="3" t="s">
+      <c r="B87" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C87" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A88" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B79" s="3" t="s">
+      <c r="B88" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C79" s="3" t="s">
+      <c r="C88" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D79" s="3" t="s">
+      <c r="D88" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E79" s="3" t="s">
+      <c r="E88" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="F79" s="3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A80" s="4" t="s">
+      <c r="F88" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A89" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="B89" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C89" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D89" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="E89" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="F89" s="4" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A90" s="5" t="s">
         <v>104</v>
       </c>
-      <c r="B80" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C80" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D80" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="E80" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="F80" s="4" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A81" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="B81" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C81" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D81" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E81" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F81" s="1" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A84" s="2" t="s">
+      <c r="B90" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="C90" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D90" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="E90" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="F90" s="5" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A91" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="B91" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C91" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D91" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="E91" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="F91" s="1" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A92" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="B92" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="C92" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D92" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E92" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F92" s="4" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A93" s="12"/>
+      <c r="B93" s="13"/>
+      <c r="C93" s="13"/>
+      <c r="D93" s="9"/>
+      <c r="E93" s="9"/>
+      <c r="F93" s="7"/>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A95" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B84" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="C84" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A85" s="3" t="s">
+      <c r="B95" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C95" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A96" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B85" s="3" t="s">
+      <c r="B96" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C85" s="3" t="s">
+      <c r="C96" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D85" s="3" t="s">
+      <c r="D96" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E85" s="3" t="s">
+      <c r="E96" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="F85" s="3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A86" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="B86" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C86" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D86" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="E86" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="F86" s="4" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A87" s="5" t="s">
-        <v>114</v>
-      </c>
-      <c r="B87" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="C87" s="5" t="s">
+      <c r="F96" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A97" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="B97" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C97" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D97" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="E97" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="F97" s="4" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A98" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="B98" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C98" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D98" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E98" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="F98" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A99" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="B99" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="C99" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D99" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E99" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="F99" s="1" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A102" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B102" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C102" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A103" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B103" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C103" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D87" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="E87" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="F87" s="5" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A88" s="4" t="s">
-        <v>110</v>
-      </c>
-      <c r="B88" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="C88" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D88" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="E88" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="F88" s="1" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A91" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B91" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="C91" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A92" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B92" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C92" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D92" s="3" t="s">
+      <c r="D103" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E92" s="3" t="s">
+      <c r="E103" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="F92" s="3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A93" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="B93" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C93" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D93" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="E93" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="F93" s="4" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A94" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="B94" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C94" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D94" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E94" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="F94" s="1" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A95" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="B95" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="C95" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D95" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E95" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="F95" s="1" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A98" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B98" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="C98" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A99" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B99" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C99" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D99" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E99" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="F99" s="3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A100" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="B100" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C100" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D100" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="E100" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="F100" s="4" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A101" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="B101" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C101" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D101" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E101" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="F101" s="1" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A102" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="B102" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="C102" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D102" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E102" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F102" s="4" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A103" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="B103" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="C103" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D103" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E103" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F103" s="4" t="s">
-        <v>102</v>
+      <c r="F103" s="3" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A104" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="B104" s="4" t="s">
-        <v>108</v>
+        <v>95</v>
+      </c>
+      <c r="B104" s="1" t="s">
+        <v>17</v>
       </c>
       <c r="C104" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D104" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E104" s="3" t="s">
-        <v>11</v>
+      <c r="D104" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="E104" s="11" t="s">
+        <v>10</v>
       </c>
       <c r="F104" s="4" t="s">
-        <v>109</v>
+        <v>127</v>
       </c>
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A105" s="7"/>
-      <c r="B105" s="7"/>
-      <c r="C105" s="8"/>
-      <c r="D105" s="9"/>
-      <c r="E105" s="9"/>
-      <c r="F105" s="7"/>
+      <c r="A105" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="B105" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C105" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D105" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E105" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="F105" s="1" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A106" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="B106" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C106" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D106" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E106" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F106" s="4" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A107" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="B107" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="C107" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D107" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E107" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F107" s="4" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A108" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="B108" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="C108" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D108" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E108" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F108" s="4" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A109" s="7"/>
+      <c r="B109" s="7"/>
+      <c r="C109" s="8"/>
+      <c r="D109" s="9"/>
+      <c r="E109" s="9"/>
+      <c r="F109" s="7"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/테이블정의서.xlsx
+++ b/테이블정의서.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\김현철\Desktop\local1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07B1F33C-A727-4F8A-A5F3-7E9D32A1CE80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8947C88C-8AE7-439B-AE18-9E093C141ED9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5610" yWindow="630" windowWidth="13980" windowHeight="10290" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="table정보" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="593" uniqueCount="169">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="593" uniqueCount="170">
   <si>
     <t>데이터베이스명</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -283,10 +283,6 @@
   </si>
   <si>
     <t>boolean</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>성별</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -727,6 +723,14 @@
   </si>
   <si>
     <t>authorInfo테이블 참조</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>char(1)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>성별(남/여)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1192,8 +1196,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M109"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="M32" sqref="M32"/>
+    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
+      <selection activeCell="F76" sqref="F76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1232,10 +1236,10 @@
         <v>1</v>
       </c>
       <c r="I3" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="J3" t="s">
         <v>141</v>
-      </c>
-      <c r="J3" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.3">
@@ -1278,28 +1282,28 @@
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F5" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="B5" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F5" s="5" t="s">
-        <v>79</v>
-      </c>
       <c r="H5" s="6" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="I5" s="6" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="J5" s="5" t="s">
         <v>9</v>
@@ -1311,12 +1315,12 @@
         <v>10</v>
       </c>
       <c r="M5" s="6" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B6" s="6" t="s">
         <v>17</v>
@@ -1331,10 +1335,10 @@
         <v>10</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="H6" s="6" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="I6" s="6" t="s">
         <v>20</v>
@@ -1349,12 +1353,12 @@
         <v>11</v>
       </c>
       <c r="M6" s="6" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A7" s="6" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B7" s="6" t="s">
         <v>17</v>
@@ -1369,7 +1373,7 @@
         <v>10</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.3">
@@ -1389,12 +1393,12 @@
         <v>11</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A9" s="6" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B9" s="5" t="s">
         <v>17</v>
@@ -1409,12 +1413,12 @@
         <v>10</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A10" s="6" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>17</v>
@@ -1429,16 +1433,16 @@
         <v>10</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="H10" s="17" t="s">
         <v>1</v>
       </c>
       <c r="I10" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="J10" t="s">
         <v>146</v>
-      </c>
-      <c r="J10" t="s">
-        <v>147</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.3">
@@ -1481,7 +1485,7 @@
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A12" s="6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>21</v>
@@ -1496,10 +1500,10 @@
         <v>11</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H12" s="6" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="I12" s="6" t="s">
         <v>17</v>
@@ -1514,7 +1518,7 @@
         <v>11</v>
       </c>
       <c r="M12" s="15" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.3">
@@ -1537,7 +1541,7 @@
         <v>16</v>
       </c>
       <c r="H13" s="6" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="I13" s="6" t="s">
         <v>20</v>
@@ -1552,7 +1556,7 @@
         <v>11</v>
       </c>
       <c r="M13" s="6" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.3">
@@ -1575,7 +1579,7 @@
         <v>24</v>
       </c>
       <c r="H14" s="6" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="I14" s="6" t="s">
         <v>17</v>
@@ -1590,12 +1594,12 @@
         <v>10</v>
       </c>
       <c r="M14" s="6" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A15" s="6" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B15" s="5" t="s">
         <v>17</v>
@@ -1610,12 +1614,12 @@
         <v>11</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A16" s="6" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>17</v>
@@ -1630,27 +1634,27 @@
         <v>11</v>
       </c>
       <c r="F16" s="4" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A17" s="6" t="s">
+        <v>153</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F17" s="4" t="s">
         <v>154</v>
-      </c>
-      <c r="B17" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="C17" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E17" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F17" s="4" t="s">
-        <v>155</v>
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.3">
@@ -1658,10 +1662,10 @@
         <v>1</v>
       </c>
       <c r="I19" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="J19" t="s">
         <v>157</v>
-      </c>
-      <c r="J19" t="s">
-        <v>158</v>
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.3">
@@ -1695,7 +1699,7 @@
         <v>41</v>
       </c>
       <c r="H21" s="5" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="I21" s="1" t="s">
         <v>17</v>
@@ -1710,7 +1714,7 @@
         <v>11</v>
       </c>
       <c r="M21" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.3">
@@ -1733,7 +1737,7 @@
         <v>18</v>
       </c>
       <c r="H22" s="5" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="I22" s="5" t="s">
         <v>17</v>
@@ -1753,7 +1757,7 @@
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A23" s="5" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B23" s="5" t="s">
         <v>17</v>
@@ -1771,7 +1775,7 @@
         <v>45</v>
       </c>
       <c r="H23" s="6" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="I23" s="6" t="s">
         <v>17</v>
@@ -1786,7 +1790,7 @@
         <v>10</v>
       </c>
       <c r="M23" s="5" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.3">
@@ -1809,22 +1813,22 @@
         <v>27</v>
       </c>
       <c r="H24" s="6" t="s">
+        <v>153</v>
+      </c>
+      <c r="I24" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="J24" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="K24" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="L24" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="M24" s="4" t="s">
         <v>154</v>
-      </c>
-      <c r="I24" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="J24" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="K24" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="L24" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="M24" s="4" t="s">
-        <v>155</v>
       </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.3">
@@ -1847,7 +1851,7 @@
         <v>28</v>
       </c>
       <c r="H25" s="5" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="I25" s="6" t="s">
         <v>43</v>
@@ -1862,7 +1866,7 @@
         <v>11</v>
       </c>
       <c r="M25" s="6" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.3">
@@ -1888,7 +1892,7 @@
         <v>25</v>
       </c>
       <c r="I26" s="6" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="J26" s="5" t="s">
         <v>4</v>
@@ -1900,12 +1904,12 @@
         <v>11</v>
       </c>
       <c r="M26" s="4" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B27" s="1" t="s">
         <v>17</v>
@@ -1920,7 +1924,7 @@
         <v>10</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.3">
@@ -1945,10 +1949,10 @@
         <v>1</v>
       </c>
       <c r="I30" s="2" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="J30" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.3">
@@ -1991,11 +1995,11 @@
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A32" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="B32" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="B32" s="5" t="s">
-        <v>81</v>
-      </c>
       <c r="C32" s="5" t="s">
         <v>9</v>
       </c>
@@ -2006,14 +2010,14 @@
         <v>10</v>
       </c>
       <c r="F32" s="5" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="H32" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="I32" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="I32" s="5" t="s">
-        <v>81</v>
-      </c>
       <c r="J32" s="5" t="s">
         <v>9</v>
       </c>
@@ -2024,12 +2028,12 @@
         <v>10</v>
       </c>
       <c r="M32" s="5" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B33" s="1" t="s">
         <v>20</v>
@@ -2047,22 +2051,22 @@
         <v>31</v>
       </c>
       <c r="H33" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="I33" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="J33" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="K33" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="L33" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="M33" s="5" t="s">
         <v>78</v>
-      </c>
-      <c r="I33" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="J33" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="K33" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="L33" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="M33" s="5" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.3">
@@ -2090,7 +2094,7 @@
         <v>61</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C35" s="1" t="s">
         <v>4</v>
@@ -2102,7 +2106,7 @@
         <v>11</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.3">
@@ -2187,22 +2191,22 @@
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A40" s="6" t="s">
+        <v>153</v>
+      </c>
+      <c r="B40" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="C40" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D40" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E40" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F40" s="4" t="s">
         <v>154</v>
-      </c>
-      <c r="B40" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="C40" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D40" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E40" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F40" s="4" t="s">
-        <v>155</v>
       </c>
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.3">
@@ -2246,22 +2250,22 @@
     </row>
     <row r="45" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A45" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D45" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E45" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F45" s="1" t="s">
         <v>100</v>
-      </c>
-      <c r="B45" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="C45" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D45" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E45" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F45" s="1" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.3">
@@ -2301,27 +2305,27 @@
         <v>11</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A48" s="6" t="s">
+        <v>153</v>
+      </c>
+      <c r="B48" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="C48" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D48" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E48" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F48" s="4" t="s">
         <v>154</v>
-      </c>
-      <c r="B48" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="C48" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D48" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E48" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F48" s="4" t="s">
-        <v>155</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.3">
@@ -2337,10 +2341,10 @@
         <v>1</v>
       </c>
       <c r="B51" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="C51" t="s">
         <v>102</v>
-      </c>
-      <c r="C51" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.3">
@@ -2365,51 +2369,51 @@
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A53" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="B53" s="5" t="s">
         <v>104</v>
       </c>
-      <c r="B53" s="5" t="s">
+      <c r="C53" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D53" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="C53" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D53" s="3" t="s">
+      <c r="E53" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="F53" s="5" t="s">
         <v>106</v>
-      </c>
-      <c r="E53" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="F53" s="5" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A54" s="6" t="s">
+        <v>153</v>
+      </c>
+      <c r="B54" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="C54" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D54" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E54" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F54" s="4" t="s">
         <v>154</v>
-      </c>
-      <c r="B54" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="C54" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D54" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E54" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F54" s="4" t="s">
-        <v>155</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A55" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="B55" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="B55" s="5" t="s">
-        <v>110</v>
-      </c>
       <c r="C55" s="5" t="s">
         <v>9</v>
       </c>
@@ -2420,55 +2424,55 @@
         <v>11</v>
       </c>
       <c r="F55" s="5" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A56" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="B56" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="C56" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D56" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E56" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F56" s="6" t="s">
         <v>111</v>
-      </c>
-      <c r="B56" s="5" t="s">
-        <v>117</v>
-      </c>
-      <c r="C56" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D56" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E56" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F56" s="6" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A57" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="B57" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="C57" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D57" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E57" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F57" s="6" t="s">
         <v>113</v>
-      </c>
-      <c r="B57" s="5" t="s">
-        <v>117</v>
-      </c>
-      <c r="C57" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D57" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E57" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F57" s="6" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A58" s="6" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B58" s="5" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C58" s="5" t="s">
         <v>4</v>
@@ -2480,7 +2484,7 @@
         <v>11</v>
       </c>
       <c r="F58" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.3">
@@ -2496,10 +2500,10 @@
         <v>1</v>
       </c>
       <c r="B61" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="C61" t="s">
         <v>121</v>
-      </c>
-      <c r="C61" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.3">
@@ -2524,7 +2528,7 @@
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A63" s="5" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B63" s="5" t="s">
         <v>17</v>
@@ -2539,15 +2543,15 @@
         <v>10</v>
       </c>
       <c r="F63" s="5" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A64" s="5" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B64" s="5" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C64" s="5" t="s">
         <v>9</v>
@@ -2559,27 +2563,27 @@
         <v>10</v>
       </c>
       <c r="F64" s="5" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A65" s="6" t="s">
+        <v>153</v>
+      </c>
+      <c r="B65" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="C65" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D65" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E65" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F65" s="4" t="s">
         <v>154</v>
-      </c>
-      <c r="B65" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="C65" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D65" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E65" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F65" s="4" t="s">
-        <v>155</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.3">
@@ -2603,10 +2607,10 @@
         <v>1</v>
       </c>
       <c r="B68" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C68" t="s">
         <v>75</v>
-      </c>
-      <c r="C68" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.3">
@@ -2631,7 +2635,7 @@
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A70" s="5" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B70" s="5" t="s">
         <v>17</v>
@@ -2646,7 +2650,7 @@
         <v>10</v>
       </c>
       <c r="F70" s="5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.3">
@@ -2666,7 +2670,7 @@
         <v>11</v>
       </c>
       <c r="F71" s="4" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.3">
@@ -2706,7 +2710,7 @@
         <v>11</v>
       </c>
       <c r="F73" s="4" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.3">
@@ -2754,7 +2758,7 @@
         <v>63</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>64</v>
+        <v>168</v>
       </c>
       <c r="C76" s="4" t="s">
         <v>4</v>
@@ -2766,35 +2770,35 @@
         <v>11</v>
       </c>
       <c r="F76" s="4" t="s">
-        <v>65</v>
+        <v>169</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A77" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B77" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="B77" s="1" t="s">
+      <c r="C77" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D77" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="E77" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="F77" s="1" t="s">
         <v>68</v>
-      </c>
-      <c r="C77" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D77" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="E77" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="F77" s="1" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A78" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C78" s="1" t="s">
         <v>9</v>
@@ -2806,7 +2810,7 @@
         <v>11</v>
       </c>
       <c r="F78" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.3">
@@ -2814,10 +2818,10 @@
         <v>1</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C81" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.3">
@@ -2842,7 +2846,7 @@
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A83" s="4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B83" s="1" t="s">
         <v>17</v>
@@ -2857,12 +2861,12 @@
         <v>10</v>
       </c>
       <c r="F83" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A84" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B84" s="1" t="s">
         <v>17</v>
@@ -2885,10 +2889,10 @@
         <v>1</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C87" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.3">
@@ -2913,7 +2917,7 @@
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A89" s="4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B89" s="1" t="s">
         <v>17</v>
@@ -2928,15 +2932,15 @@
         <v>10</v>
       </c>
       <c r="F89" s="4" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A90" s="5" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B90" s="5" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C90" s="5" t="s">
         <v>4</v>
@@ -2948,15 +2952,15 @@
         <v>10</v>
       </c>
       <c r="F90" s="5" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A91" s="4" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C91" s="1" t="s">
         <v>4</v>
@@ -2968,27 +2972,27 @@
         <v>10</v>
       </c>
       <c r="F91" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A92" s="6" t="s">
+        <v>153</v>
+      </c>
+      <c r="B92" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="C92" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D92" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E92" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F92" s="4" t="s">
         <v>154</v>
-      </c>
-      <c r="B92" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="C92" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D92" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E92" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F92" s="4" t="s">
-        <v>155</v>
       </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.3">
@@ -3004,10 +3008,10 @@
         <v>1</v>
       </c>
       <c r="B95" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C95" t="s">
         <v>86</v>
-      </c>
-      <c r="C95" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.3">
@@ -3032,7 +3036,7 @@
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A97" s="4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B97" s="1" t="s">
         <v>17</v>
@@ -3047,12 +3051,12 @@
         <v>10</v>
       </c>
       <c r="F97" s="4" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A98" s="4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B98" s="1" t="s">
         <v>17</v>
@@ -3067,12 +3071,12 @@
         <v>10</v>
       </c>
       <c r="F98" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A99" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B99" s="4" t="s">
         <v>64</v>
@@ -3087,7 +3091,7 @@
         <v>11</v>
       </c>
       <c r="F99" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.3">
@@ -3095,10 +3099,10 @@
         <v>1</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C102" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.3">
@@ -3123,7 +3127,7 @@
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A104" s="4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B104" s="1" t="s">
         <v>17</v>
@@ -3138,12 +3142,12 @@
         <v>10</v>
       </c>
       <c r="F104" s="4" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A105" s="4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B105" s="1" t="s">
         <v>17</v>
@@ -3158,12 +3162,12 @@
         <v>10</v>
       </c>
       <c r="F105" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A106" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B106" s="4" t="s">
         <v>21</v>
@@ -3178,47 +3182,47 @@
         <v>11</v>
       </c>
       <c r="F106" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A107" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="B107" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="C107" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D107" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E107" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F107" s="4" t="s">
         <v>92</v>
-      </c>
-      <c r="B107" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="C107" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D107" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E107" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F107" s="4" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A108" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="B108" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="B108" s="4" t="s">
+      <c r="C108" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D108" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E108" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F108" s="4" t="s">
         <v>98</v>
-      </c>
-      <c r="C108" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D108" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E108" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F108" s="4" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.3">
